--- a/task_1/avito_qa_task_1.xlsx
+++ b/task_1/avito_qa_task_1.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vorob\avito_qa\task_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -204,58 +212,63 @@
     <t>12.jpg</t>
   </si>
   <si>
-    <t>Отсутствие иконки для добавления товара в избранное в объявлении</t>
-  </si>
-  <si>
-    <t>Отсутствие иконки "сердечко" для добавления товара в избранное в объявлении под фотографией товара справа от названия объявления</t>
-  </si>
-  <si>
-    <t>Отображение иконки для добавления в избранное для товара</t>
-  </si>
-  <si>
     <t>13.jpg</t>
+  </si>
+  <si>
+    <t>Отображение иконки для добавления в избранное для товара в объявлении под фотографией товара справа от названия объявления</t>
+  </si>
+  <si>
+    <t>Неверное расположение кнопки для добавления товара в избранное в объявлении</t>
+  </si>
+  <si>
+    <t>Отображение кнопки "сердечко" для добавления товара в избранное в объявлении на фотографии в правом верхнем углу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -266,7 +279,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -300,71 +313,79 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -554,360 +575,380 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.88"/>
-    <col customWidth="1" min="2" max="2" width="23.0"/>
-    <col customWidth="1" min="3" max="3" width="25.88"/>
-    <col customWidth="1" min="4" max="4" width="24.88"/>
-    <col customWidth="1" min="5" max="5" width="22.5"/>
-    <col customWidth="1" min="7" max="7" width="15.25"/>
-    <col customWidth="1" min="8" max="8" width="41.13"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" ht="27.0" customHeight="1"/>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="132.0" customHeight="1">
-      <c r="A6" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:11" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="141.0" customHeight="1">
-      <c r="A16" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -916,20 +957,20 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G4"/>
-    <hyperlink r:id="rId2" ref="G5"/>
-    <hyperlink r:id="rId3" ref="G6"/>
-    <hyperlink r:id="rId4" ref="G7"/>
-    <hyperlink r:id="rId5" ref="G8"/>
-    <hyperlink r:id="rId6" ref="G9"/>
-    <hyperlink r:id="rId7" ref="G10"/>
-    <hyperlink r:id="rId8" ref="G11"/>
-    <hyperlink r:id="rId9" ref="G12"/>
-    <hyperlink r:id="rId10" ref="G13"/>
-    <hyperlink r:id="rId11" ref="G14"/>
-    <hyperlink r:id="rId12" ref="G15"/>
-    <hyperlink r:id="rId13" ref="G16"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="G10" r:id="rId7"/>
+    <hyperlink ref="G11" r:id="rId8"/>
+    <hyperlink ref="G12" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId11"/>
+    <hyperlink ref="G15" r:id="rId12"/>
+    <hyperlink ref="G16" r:id="rId13"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>